--- a/forecast_summary_B0CPW1F841.xlsx
+++ b/forecast_summary_B0CPW1F841.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>33.67735247551761</v>
       </c>
       <c r="D2" t="n">
-        <v>42.52161382339154</v>
+        <v>42.88792426725904</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
@@ -511,6 +516,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>38.06239960873916</v>
       </c>
       <c r="D3" t="n">
-        <v>47.92448284672506</v>
+        <v>47.9566202197045</v>
       </c>
       <c r="E3" t="n">
         <v>29</v>
@@ -547,6 +555,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>30.6156900868552</v>
       </c>
       <c r="D4" t="n">
-        <v>40.21823732238246</v>
+        <v>40.59279996985135</v>
       </c>
       <c r="E4" t="n">
         <v>27</v>
@@ -583,6 +594,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>18.2050404042393</v>
       </c>
       <c r="D5" t="n">
-        <v>27.23200752275368</v>
+        <v>28.60605566328702</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
@@ -619,6 +633,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>14.67334807325643</v>
       </c>
       <c r="D6" t="n">
-        <v>24.96092242283223</v>
+        <v>24.858171162344</v>
       </c>
       <c r="E6" t="n">
         <v>27</v>
@@ -655,6 +672,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>26.34617512618811</v>
       </c>
       <c r="D7" t="n">
-        <v>36.22709862427103</v>
+        <v>36.20592085218655</v>
       </c>
       <c r="E7" t="n">
         <v>30</v>
@@ -691,6 +711,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>44.7112293355415</v>
       </c>
       <c r="D8" t="n">
-        <v>54.26234888036915</v>
+        <v>54.56489472150596</v>
       </c>
       <c r="E8" t="n">
         <v>31</v>
@@ -727,6 +750,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>55.46920613309894</v>
       </c>
       <c r="D9" t="n">
-        <v>65.01240432871278</v>
+        <v>65.16067454652662</v>
       </c>
       <c r="E9" t="n">
         <v>31</v>
@@ -763,6 +789,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>53.85303695362944</v>
       </c>
       <c r="D10" t="n">
-        <v>63.23758935253773</v>
+        <v>63.59755878919273</v>
       </c>
       <c r="E10" t="n">
         <v>30</v>
@@ -799,6 +828,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>48.31632439804816</v>
       </c>
       <c r="D11" t="n">
-        <v>58.70628847006881</v>
+        <v>58.13494584562584</v>
       </c>
       <c r="E11" t="n">
         <v>29</v>
@@ -835,6 +867,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>48.71538010216496</v>
       </c>
       <c r="D12" t="n">
-        <v>58.27639182761425</v>
+        <v>58.86355234935122</v>
       </c>
       <c r="E12" t="n">
         <v>29</v>
@@ -871,6 +906,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>54.06324148863519</v>
       </c>
       <c r="D13" t="n">
-        <v>63.53662336615229</v>
+        <v>63.85817641272939</v>
       </c>
       <c r="E13" t="n">
         <v>29</v>
@@ -907,6 +945,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>55.11893460804958</v>
       </c>
       <c r="D14" t="n">
-        <v>64.94863800936297</v>
+        <v>65.11552694573037</v>
       </c>
       <c r="E14" t="n">
         <v>30</v>
@@ -943,6 +984,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>47.99762569031157</v>
       </c>
       <c r="D15" t="n">
-        <v>58.28899086776902</v>
+        <v>57.32474050822717</v>
       </c>
       <c r="E15" t="n">
         <v>29</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>40.69549234532698</v>
       </c>
       <c r="D16" t="n">
-        <v>50.68965773390191</v>
+        <v>50.12314962216626</v>
       </c>
       <c r="E16" t="n">
         <v>28</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>43.37280212365906</v>
       </c>
       <c r="D17" t="n">
-        <v>53.01881084470394</v>
+        <v>52.7091644406344</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>54.42711420388701</v>
       </c>
       <c r="D18" t="n">
-        <v>64.09715342616836</v>
+        <v>63.75970796270655</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>60.69604594041169</v>
       </c>
       <c r="D19" t="n">
-        <v>69.70863057795069</v>
+        <v>70.01173053604968</v>
       </c>
       <c r="E19" t="n">
         <v>30</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>52.80546847887421</v>
       </c>
       <c r="D20" t="n">
-        <v>63.84512433968185</v>
+        <v>62.5086950114685</v>
       </c>
       <c r="E20" t="n">
         <v>31</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>37.17149831779842</v>
       </c>
       <c r="D21" t="n">
-        <v>47.78764735600384</v>
+        <v>47.44249015468721</v>
       </c>
       <c r="E21" t="n">
         <v>27</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>TRX50 AERO D</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
